--- a/biology/Botanique/Cyclophoraceae/Cyclophoraceae.xlsx
+++ b/biology/Botanique/Cyclophoraceae/Cyclophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyclophoraceae sont une famille d'algues de l'embranchement des Bacillariophyta de la classe des Bacillariophyceae et de l’ordre des Cyclophorales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cyclophora[1], dérivé du grec κύκλος / kýklos, « cercle ; rond », et φόρος / phoros, porter, en référence à la coque entourant la diatomée (frustule) dont la forme est plus ou moins circulaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cyclophora, dérivé du grec κύκλος / kýklos, « cercle ; rond », et φόρος / phoros, porter, en référence à la coque entourant la diatomée (frustule) dont la forme est plus ou moins circulaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cyclophoraceae a été créée en 1990 par les phycologues Frank Eric Round (d) (1927–2010) et Richard Miles Crawford (d) (1941-)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cyclophoraceae a été créée en 1990 par les phycologues Frank Eric Round (d) (1927–2010) et Richard Miles Crawford (d) (1941-).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Cyclophora est une diatomée sans raphé (araphides), se présentant sous la forme de frustules inégales ou égales, composées de une ou deux valves avec, au centre, un « pseudoseptum »[note 1] elliptique à circulaire, contenant des pyrénoïdes. Ces frustules sont tabulées-rectangulaires et reliées en chaîne par des coussinets gélatineux alternés[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Cyclophora est une diatomée sans raphé (araphides), se présentant sous la forme de frustules inégales ou égales, composées de une ou deux valves avec, au centre, un « pseudoseptum »[note 1] elliptique à circulaire, contenant des pyrénoïdes. Ces frustules sont tabulées-rectangulaires et reliées en chaîne par des coussinets gélatineux alternés. 
 </t>
         </is>
       </c>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,11 +650,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Liste des genres selon AlgaeBase                                           (28 avril 2022)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des genres selon AlgaeBase                                           (28 avril 2022) :
 Cyclophora Castracane, 1878 genre type
-Cyclophora tenuis Castracane, 1878 espèce type[2]
+Cyclophora tenuis Castracane, 1878 espèce type
 Lucanicum C.S.Lobban &amp; M.P.Ashworth, 2014</t>
         </is>
       </c>
